--- a/Hauptmessung/Excel/Hauptmessung/Vergleich alle.xlsx
+++ b/Hauptmessung/Excel/Hauptmessung/Vergleich alle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heldm\Documents\Bachelor Thesis\BA-RedTail\Hauptmessung\Excel\Hauptmessung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EECF297-345A-4F99-97DE-E6825778B441}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C447F4-B73F-4421-992A-BE0B7D47F010}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{72E0C15A-CE16-4282-9548-0CA8B2072E7B}"/>
   </bookViews>
@@ -147,6 +147,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -348,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -426,22 +429,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -450,6 +441,20 @@
     <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -766,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF10E99-9B04-4130-9D68-2E3323825683}">
   <dimension ref="B3:AC42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -777,7 +782,7 @@
     <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
     <col min="10" max="10" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
@@ -795,10 +800,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:29">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
@@ -873,10 +878,10 @@
       </c>
     </row>
     <row r="4" spans="2:29">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="3">
         <v>1</v>
       </c>
@@ -899,7 +904,7 @@
       <c r="K4" s="4">
         <v>87</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>85</v>
       </c>
       <c r="M4" s="4">
@@ -927,10 +932,10 @@
       <c r="AA4" s="16"/>
     </row>
     <row r="5" spans="2:29">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="1">
         <v>1</v>
       </c>
@@ -946,7 +951,7 @@
       <c r="H5" s="2">
         <v>5390</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="51">
         <v>0</v>
       </c>
       <c r="J5" s="2">
@@ -993,10 +998,10 @@
       <c r="AC5" s="38"/>
     </row>
     <row r="6" spans="2:29">
-      <c r="B6" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="45"/>
+      <c r="B6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="43"/>
       <c r="D6" s="3">
         <v>2</v>
       </c>
@@ -1012,7 +1017,7 @@
       <c r="H6" s="4">
         <v>5396</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="52">
         <v>0</v>
       </c>
       <c r="J6" s="4">
@@ -1061,10 +1066,10 @@
       <c r="AC6" s="38"/>
     </row>
     <row r="7" spans="2:29">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="3">
         <v>3</v>
       </c>
@@ -1080,7 +1085,7 @@
       <c r="H7" s="4">
         <v>5398</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="52">
         <v>0</v>
       </c>
       <c r="J7" s="4">
@@ -1129,10 +1134,10 @@
       <c r="AC7" s="38"/>
     </row>
     <row r="8" spans="2:29">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="1">
         <v>2</v>
       </c>
@@ -1148,7 +1153,7 @@
       <c r="H8" s="2">
         <v>5403</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="51">
         <v>0</v>
       </c>
       <c r="J8" s="2">
@@ -1199,10 +1204,10 @@
       <c r="AC8" s="21"/>
     </row>
     <row r="9" spans="2:29">
-      <c r="B9" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="45"/>
+      <c r="B9" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="43"/>
       <c r="D9" s="3">
         <v>3</v>
       </c>
@@ -1218,7 +1223,7 @@
       <c r="H9" s="4">
         <v>5393</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="52">
         <v>0</v>
       </c>
       <c r="J9" s="4">
@@ -1271,10 +1276,10 @@
       <c r="AC9" s="21"/>
     </row>
     <row r="10" spans="2:29">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="3">
         <v>4</v>
       </c>
@@ -1290,7 +1295,7 @@
       <c r="H10" s="4">
         <v>5396</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="52">
         <v>0</v>
       </c>
       <c r="J10" s="4">
@@ -1343,10 +1348,10 @@
       <c r="AC10" s="21"/>
     </row>
     <row r="11" spans="2:29">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="1">
         <v>2</v>
       </c>
@@ -1362,7 +1367,7 @@
       <c r="H11" s="2">
         <v>5399</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="51">
         <v>0</v>
       </c>
       <c r="J11" s="2">
@@ -1415,10 +1420,10 @@
       <c r="AC11" s="21"/>
     </row>
     <row r="12" spans="2:29">
-      <c r="B12" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="45"/>
+      <c r="B12" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="43"/>
       <c r="D12" s="3">
         <v>3</v>
       </c>
@@ -1434,7 +1439,7 @@
       <c r="H12" s="4">
         <v>5399</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="52">
         <v>0</v>
       </c>
       <c r="J12" s="4">
@@ -1489,10 +1494,10 @@
       <c r="AC12" s="21"/>
     </row>
     <row r="13" spans="2:29">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="3">
         <v>4</v>
       </c>
@@ -1508,7 +1513,7 @@
       <c r="H13" s="4">
         <v>5395</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="52">
         <v>0</v>
       </c>
       <c r="J13" s="4">
@@ -1563,10 +1568,10 @@
       <c r="AC13" s="21"/>
     </row>
     <row r="14" spans="2:29">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="44"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="1">
         <v>2</v>
       </c>
@@ -1582,7 +1587,7 @@
       <c r="H14" s="2">
         <v>5394</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="51">
         <v>0</v>
       </c>
       <c r="J14" s="2">
@@ -1629,10 +1634,10 @@
       <c r="AC14" s="21"/>
     </row>
     <row r="15" spans="2:29">
-      <c r="B15" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="45"/>
+      <c r="B15" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="43"/>
       <c r="D15" s="3">
         <v>3</v>
       </c>
@@ -1648,7 +1653,7 @@
       <c r="H15" s="4">
         <v>5400</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="52">
         <v>0</v>
       </c>
       <c r="J15" s="4">
@@ -1697,10 +1702,10 @@
       <c r="AC15" s="21"/>
     </row>
     <row r="16" spans="2:29">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="3">
         <v>4</v>
       </c>
@@ -1716,7 +1721,7 @@
       <c r="H16" s="4">
         <v>5396</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="52">
         <v>0</v>
       </c>
       <c r="J16" s="4">
@@ -1765,10 +1770,10 @@
       <c r="AC16" s="21"/>
     </row>
     <row r="17" spans="2:29">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="1">
         <v>2</v>
       </c>
@@ -1784,7 +1789,7 @@
       <c r="H17" s="2">
         <v>5399</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="51">
         <v>0</v>
       </c>
       <c r="J17" s="2">
@@ -1831,10 +1836,10 @@
       <c r="AC17" s="36"/>
     </row>
     <row r="18" spans="2:29">
-      <c r="B18" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="45"/>
+      <c r="B18" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="43"/>
       <c r="D18" s="3">
         <v>3</v>
       </c>
@@ -1850,7 +1855,7 @@
       <c r="H18" s="4">
         <v>5390</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="52">
         <v>0</v>
       </c>
       <c r="J18" s="4">
@@ -1899,10 +1904,10 @@
       <c r="AC18" s="36"/>
     </row>
     <row r="19" spans="2:29">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="45"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="3">
         <v>4</v>
       </c>
@@ -1918,7 +1923,7 @@
       <c r="H19" s="4">
         <v>5390</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="52">
         <v>0</v>
       </c>
       <c r="J19" s="4">
@@ -1967,10 +1972,10 @@
       <c r="AC19" s="36"/>
     </row>
     <row r="20" spans="2:29">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="1">
         <v>2</v>
       </c>
@@ -1986,7 +1991,7 @@
       <c r="H20" s="2">
         <v>5390</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="51">
         <v>0</v>
       </c>
       <c r="J20" s="2">
@@ -2039,10 +2044,10 @@
       <c r="AC20" s="36"/>
     </row>
     <row r="21" spans="2:29">
-      <c r="B21" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="45"/>
+      <c r="B21" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="43"/>
       <c r="D21" s="3">
         <v>3</v>
       </c>
@@ -2058,7 +2063,7 @@
       <c r="H21" s="4">
         <v>5396</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="52">
         <v>0</v>
       </c>
       <c r="J21" s="4">
@@ -2111,10 +2116,10 @@
       </c>
     </row>
     <row r="22" spans="2:29">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="45"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="3">
         <v>4</v>
       </c>
@@ -2130,7 +2135,7 @@
       <c r="H22" s="4">
         <v>5395</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="52">
         <v>0</v>
       </c>
       <c r="J22" s="4">
@@ -2287,10 +2292,10 @@
       </c>
     </row>
     <row r="25" spans="2:29">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -2317,7 +2322,7 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="2:29">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="48"/>
@@ -2413,10 +2418,10 @@
       </c>
     </row>
     <row r="27" spans="2:29">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="47"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35">
@@ -2509,10 +2514,10 @@
       </c>
     </row>
     <row r="28" spans="2:29">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2539,10 +2544,10 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="2:29">
-      <c r="B29" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="47"/>
+      <c r="B29" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="44"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
       <c r="F29" s="35">
@@ -2635,10 +2640,10 @@
       </c>
     </row>
     <row r="30" spans="2:29">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="47"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35">
@@ -2731,10 +2736,10 @@
       </c>
     </row>
     <row r="31" spans="2:29">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2761,10 +2766,10 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="2:29">
-      <c r="B32" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="47"/>
+      <c r="B32" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="44"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35">
@@ -2857,10 +2862,10 @@
       </c>
     </row>
     <row r="33" spans="2:27">
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="47"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
       <c r="F33" s="35">
@@ -2953,10 +2958,10 @@
       </c>
     </row>
     <row r="34" spans="2:27">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2983,10 +2988,10 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="2:27">
-      <c r="B35" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="47"/>
+      <c r="B35" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="44"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
       <c r="F35" s="35">
@@ -3079,10 +3084,10 @@
       </c>
     </row>
     <row r="36" spans="2:27">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="47"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
       <c r="F36" s="35">
@@ -3175,10 +3180,10 @@
       </c>
     </row>
     <row r="37" spans="2:27">
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -3205,10 +3210,10 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="2:27">
-      <c r="B38" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="47"/>
+      <c r="B38" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="44"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
       <c r="F38" s="35">
@@ -3301,10 +3306,10 @@
       </c>
     </row>
     <row r="39" spans="2:27">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="47"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
       <c r="F39" s="35">
@@ -3397,10 +3402,10 @@
       </c>
     </row>
     <row r="40" spans="2:27">
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="49"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -3427,10 +3432,10 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="2:27">
-      <c r="B41" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="47"/>
+      <c r="B41" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="44"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
       <c r="F41" s="35">
@@ -3523,10 +3528,10 @@
       </c>
     </row>
     <row r="42" spans="2:27">
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="47"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
       <c r="F42" s="35">
@@ -3620,6 +3625,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
@@ -3636,29 +3663,8 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>